--- a/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
+++ b/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A19B018-189F-418A-A44E-ED5FF42633E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F8F93-30BB-4E0C-860D-A2DEFB874BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25¢" sheetId="6" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="101">
   <si>
     <t>-</t>
   </si>
@@ -501,17 +501,34 @@
   </si>
   <si>
     <t>Elsie MacGill</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Birth of Lucy Maud Montgomery</t>
+  </si>
+  <si>
+    <t>Obv: Charles III</t>
+  </si>
+  <si>
+    <t>Colored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -752,23 +769,23 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,75 +797,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -861,7 +884,1783 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7" xr:uid="{5785811C-638E-499B-A58B-A00BC5FB3EAB}"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="225">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -870,1710 +2669,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2604,9 +2699,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="223" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2911,11 +3006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B4963-DC2E-4382-9FF8-510C6ADD856E}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2930,28 +3025,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +3089,7 @@
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="30" t="str">
+      <c r="I3" s="22" t="str">
         <f t="shared" ref="I3:I42" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -3024,7 +3119,7 @@
       <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="30" t="str">
+      <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3052,7 +3147,7 @@
       <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3080,7 +3175,7 @@
       <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3108,7 +3203,7 @@
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3136,7 +3231,7 @@
       <c r="H8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3166,7 +3261,7 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3196,7 +3291,7 @@
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3226,7 +3321,7 @@
       <c r="H11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3256,7 +3351,7 @@
       <c r="H12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3286,7 +3381,7 @@
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3316,7 +3411,7 @@
       <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3346,7 +3441,7 @@
       <c r="H15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3376,7 +3471,7 @@
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3406,7 +3501,7 @@
       <c r="H17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3436,7 +3531,7 @@
       <c r="H18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3466,7 +3561,7 @@
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3496,7 +3591,7 @@
       <c r="H20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3524,7 +3619,7 @@
       <c r="H21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3552,7 +3647,7 @@
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3580,7 +3675,7 @@
       <c r="H23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3596,7 +3691,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3626,7 +3721,7 @@
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3656,7 +3751,7 @@
       <c r="H26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3686,7 +3781,7 @@
       <c r="H27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3716,7 +3811,7 @@
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3746,7 +3841,7 @@
       <c r="H29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="30" t="str">
+      <c r="I29" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3774,7 +3869,7 @@
       <c r="H30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="30" t="str">
+      <c r="I30" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3804,7 +3899,7 @@
       <c r="H31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="30" t="str">
+      <c r="I31" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3832,7 +3927,7 @@
       <c r="H32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="I32" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3860,7 +3955,7 @@
       <c r="H33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="30" t="str">
+      <c r="I33" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3890,7 +3985,7 @@
       <c r="H34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="30" t="str">
+      <c r="I34" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3918,7 +4013,7 @@
       <c r="H35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="30" t="str">
+      <c r="I35" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3948,7 +4043,7 @@
       <c r="H36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3978,7 +4073,7 @@
       <c r="H37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="30" t="str">
+      <c r="I37" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4008,7 +4103,7 @@
       <c r="H38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="30" t="str">
+      <c r="I38" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4038,7 +4133,7 @@
       <c r="H39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="30" t="str">
+      <c r="I39" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4068,7 +4163,7 @@
       <c r="H40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="30" t="str">
+      <c r="I40" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4098,7 +4193,7 @@
       <c r="H41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="30" t="str">
+      <c r="I41" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4128,7 +4223,7 @@
       <c r="H42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I42" s="30" t="str">
+      <c r="I42" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4154,182 +4249,182 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H30 G32:H33 G35:H35">
-    <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="118" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H30 G32:H33 G35:H35">
-    <cfRule type="containsText" dxfId="214" priority="116" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="116" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="213" priority="92" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="92" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="212" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="211" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="210" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="209" priority="98" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="98" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="208" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="207" priority="96" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="96" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="206" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="205" priority="94" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="204" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="203" priority="90" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="90" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="202" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="201" priority="88" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="88" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="200" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="199" priority="86" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="86" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="198" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="197" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="196" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="195" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="194" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="193" priority="64" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="192" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="191" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="62" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="190" priority="44" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="44" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="189" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="188" priority="42" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="42" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="187" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="186" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="185" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="184" priority="38" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="38" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="183" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="182" priority="36" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="36" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="181" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="180" priority="34" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="34" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4346,52 +4441,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="179" priority="32" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="32" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="178" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="177" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="176" priority="30" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="30" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="175" priority="28" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="28" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="174" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="173" priority="26" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="26" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="172" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="171" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="170" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4408,52 +4503,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="169" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="168" priority="20" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="20" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="167" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="166" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="165" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="164" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="163" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="162" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="161" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="160" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4470,52 +4565,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H42">
-    <cfRule type="containsText" dxfId="159" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H42">
-    <cfRule type="containsText" dxfId="158" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="156" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="155" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="154" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="153" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="152" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="151" priority="2" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="150" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4527,13 +4622,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B0967-53FD-4FC2-980A-CA1566FA6C4B}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4548,28 +4643,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4709,7 @@
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="30" t="str">
+      <c r="I3" s="22" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -4642,7 +4737,7 @@
       <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="30" t="str">
+      <c r="I4" s="22" t="str">
         <f t="shared" ref="I4:I31" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -4670,7 +4765,7 @@
       <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4698,7 +4793,7 @@
       <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4728,7 +4823,7 @@
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4756,7 +4851,7 @@
       <c r="H8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4784,7 +4879,7 @@
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4812,7 +4907,7 @@
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4840,7 +4935,7 @@
       <c r="H11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4868,7 +4963,7 @@
       <c r="H12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4896,7 +4991,7 @@
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4924,7 +5019,7 @@
       <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4952,7 +5047,7 @@
       <c r="H15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4982,7 +5077,7 @@
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5008,7 +5103,7 @@
       <c r="H17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5038,7 +5133,7 @@
       <c r="H18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5066,7 +5161,7 @@
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5094,7 +5189,7 @@
       <c r="H20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5122,7 +5217,7 @@
       <c r="H21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5152,7 +5247,7 @@
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5180,7 +5275,7 @@
       <c r="H23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5208,7 +5303,7 @@
       <c r="H24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5236,7 +5331,7 @@
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5264,7 +5359,7 @@
       <c r="H26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5292,7 +5387,7 @@
       <c r="H27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5320,7 +5415,7 @@
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5348,7 +5443,7 @@
       <c r="H29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="30" t="str">
+      <c r="I29" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5376,7 +5471,7 @@
       <c r="H30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="30" t="str">
+      <c r="I30" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5385,7 +5480,7 @@
       <c r="A31" s="12">
         <v>2023</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="14"/>
@@ -5404,8 +5499,62 @@
       <c r="H31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="30" t="str">
+      <c r="I31" s="22" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22" t="str">
+        <f t="shared" ref="I32" si="1">IF(OR(AND(G32&gt;1,G32&lt;&gt;"-"),AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22" t="str">
+        <f t="shared" ref="I33" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5417,9 +5566,9 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="colorScale" priority="259">
+    <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5431,82 +5580,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="149" priority="258" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="269" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="148" priority="257" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="268" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="147" priority="255" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="266" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="146" priority="256" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="267" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="145" priority="254" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="265" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="144" priority="253" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="264" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="143" priority="252" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="263" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="142" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="141" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="140" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="139" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="138" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="137" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="136" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="135" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="72" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5518,102 +5667,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="134" priority="188" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="133" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="198" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="132" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="196" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="131" priority="186" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="130" priority="184" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="129" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="194" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="128" priority="182" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="127" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="192" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="126" priority="180" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="125" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="190" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="124" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="122" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="120" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="121" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="118" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="120" priority="106" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="119" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="116" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="118" priority="104" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="117" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="116" priority="102" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H5 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="containsText" dxfId="122" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5625,31 +5774,100 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="115" priority="166" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="176" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="113" priority="162" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="172" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="111" priority="160" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G5 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="117" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="116" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="115" priority="168" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="114" priority="166" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="113" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="112" priority="164" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="111" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="110" priority="162" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="109" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="108" priority="160" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5661,27 +5879,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="110" priority="158" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="109" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="108" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="107" priority="156" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H10 H12 H14 H20">
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="107" priority="158" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="106" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="105" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="104" priority="156" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5693,64 +5911,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="106" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="105" priority="152" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="104" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="103" priority="150" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="102" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G6 G10 G12 G14 G20">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="101" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="100" priority="146" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="99" priority="144" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="98" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G7:H7">
+    <cfRule type="containsText" dxfId="103" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="containsText" dxfId="102" priority="152" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="101" priority="150" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="100" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="99" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="98" priority="148" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="97" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="96" priority="146" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="95" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="94" priority="144" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5762,57 +5973,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="97" priority="142" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="96" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="95" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="94" priority="140" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="93" priority="138" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="92" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="91" priority="136" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="90" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="89" priority="134" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="88" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
+    <cfRule type="containsText" dxfId="93" priority="142" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="containsText" dxfId="92" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="91" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="89" priority="138" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="88" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="87" priority="136" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="86" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="85" priority="134" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="84" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5824,57 +6035,52 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="87" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="86" priority="130" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="85" priority="128" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="84" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="83" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="82" priority="126" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="81" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="80" priority="124" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="79" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="78" priority="122" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
+    <cfRule type="containsText" dxfId="83" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="containsText" dxfId="82" priority="130" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="81" priority="128" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="80" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="79" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="78" priority="126" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="77" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="76" priority="124" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="75" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5886,52 +6092,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="77" priority="120" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="76" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="75" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="74" priority="118" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="73" priority="116" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="72" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="70" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="69" priority="112" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="74" priority="112" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="73" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5943,17 +6114,64 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="67" priority="100" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="72" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="71" priority="108" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="70" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="69" priority="106" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="68" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="67" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="66" priority="102" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="65" priority="100" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="64" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5965,32 +6183,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="66" priority="98" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="65" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="64" priority="96" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="63" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="62" priority="94" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="62" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="61" priority="96" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6002,27 +6210,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="61" priority="92" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="60" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="59" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="58" priority="90" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="60" priority="92" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="59" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="58" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="57" priority="90" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6034,22 +6242,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="57" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="56" priority="86" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="55" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="56" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="55" priority="86" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6061,27 +6264,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="containsText" dxfId="54" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G26">
     <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6093,17 +6296,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="50" priority="76" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6115,27 +6318,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="45" priority="68" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6147,17 +6350,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="44" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="41" priority="62" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6169,27 +6387,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="39" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6201,32 +6419,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="35" priority="54" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6238,27 +6456,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="30" priority="46" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="29" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6270,32 +6488,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="28" priority="42" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="23" priority="40" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6307,27 +6525,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="20" priority="36" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="19" priority="34" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6339,32 +6557,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="15" priority="30" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="13" priority="28" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6376,28 +6594,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6408,33 +6626,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6445,23 +6663,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
+++ b/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F8F93-30BB-4E0C-860D-A2DEFB874BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171DA65-E061-4CE8-9D9C-E864ABCB2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25¢" sheetId="6" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="102">
   <si>
     <t>-</t>
   </si>
@@ -510,17 +510,28 @@
   </si>
   <si>
     <t>Colored</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Supreme Court of Canada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -769,23 +780,23 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,80 +808,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -884,1639 +898,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7" xr:uid="{5785811C-638E-499B-A58B-A00BC5FB3EAB}"/>
   </cellStyles>
-  <dxfs count="225">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="243">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2669,6 +1051,1782 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2699,9 +2857,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="224"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="223" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="222"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3025,28 +3183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -4249,182 +4407,182 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H30 G32:H33 G35:H35">
-    <cfRule type="containsText" dxfId="221" priority="118" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="242" priority="118" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H30 G32:H33 G35:H35">
-    <cfRule type="containsText" dxfId="220" priority="116" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="241" priority="116" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="219" priority="92" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="240" priority="92" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="218" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="239" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="217" priority="100" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="238" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="216" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="237" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="215" priority="98" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="236" priority="98" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="214" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="235" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="containsText" dxfId="213" priority="96" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="234" priority="96" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="212" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="233" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="211" priority="94" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="210" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="209" priority="90" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="90" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="208" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="229" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="207" priority="88" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="228" priority="88" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="206" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="227" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H30 H32:H33 H35">
-    <cfRule type="containsText" dxfId="205" priority="86" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="226" priority="86" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="204" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="225" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="203" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="224" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="202" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="223" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="201" priority="82" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="222" priority="82" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="200" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="199" priority="64" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="64" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="198" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="197" priority="62" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="62" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="196" priority="44" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="44" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="195" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="194" priority="42" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="42" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="193" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="192" priority="40" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="40" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="191" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="190" priority="38" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="38" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10 G12 G14 G16 G18 G20 G22 G25 G27 G29 G35 G32">
-    <cfRule type="containsText" dxfId="189" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="188" priority="36" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="36" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="187" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="186" priority="34" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="34" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4441,52 +4599,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="185" priority="32" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="32" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="containsText" dxfId="184" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="183" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="182" priority="30" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="30" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="181" priority="28" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="28" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="180" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="179" priority="26" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="26" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="178" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="177" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="176" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4503,52 +4661,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="175" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="174" priority="20" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="20" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="173" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="172" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="170" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="169" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="168" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="166" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4565,52 +4723,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H42">
-    <cfRule type="containsText" dxfId="165" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H42">
-    <cfRule type="containsText" dxfId="164" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="162" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="161" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="160" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="containsText" dxfId="159" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="158" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="157" priority="2" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4622,13 +4780,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B0967-53FD-4FC2-980A-CA1566FA6C4B}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4643,28 +4801,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -5480,7 +5638,7 @@
       <c r="A31" s="12">
         <v>2023</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="14"/>
@@ -5508,11 +5666,11 @@
       <c r="A32" s="12">
         <v>2024</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="24" t="s">
         <v>99</v>
       </c>
       <c r="E32" s="20"/>
@@ -5534,13 +5692,13 @@
       <c r="A33" s="12">
         <v>2024</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="24" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="20"/>
@@ -5554,7 +5712,61 @@
         <v>0</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" ref="I33" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I33:I34" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="22" t="str">
+        <f t="shared" ref="I35" si="3">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5566,9 +5778,9 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5580,81 +5792,188 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="155" priority="269" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="154" priority="268" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="290" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="153" priority="266" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="288" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="152" priority="267" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="151" priority="265" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="287" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="150" priority="264" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="286" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="149" priority="263" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="285" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="148" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="147" priority="94" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="116" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="146" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="145" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="106" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="144" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="143" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="96" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="142" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="141" priority="72" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="161" priority="221" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="160" priority="220" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="159" priority="218" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="158" priority="219" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="157" priority="217" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="156" priority="216" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="155" priority="215" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="154" priority="214" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="153" priority="213" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="152" priority="212" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="151" priority="144" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="containsText" dxfId="150" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="containsText" dxfId="149" priority="142" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="148" priority="140" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="147" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="146" priority="138" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="145" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="144" priority="136" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="143" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H5 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5666,103 +5985,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="140" priority="199" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="139" priority="198" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="138" priority="196" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="137" priority="197" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="136" priority="195" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="135" priority="194" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="134" priority="193" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="133" priority="192" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="132" priority="191" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="131" priority="190" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="129" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="128" priority="120" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="127" priority="118" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="126" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="125" priority="116" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="122" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="containsText" dxfId="142" priority="199" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+    <cfRule type="containsText" dxfId="141" priority="198" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+    <cfRule type="containsText" dxfId="140" priority="195" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+    <cfRule type="containsText" dxfId="139" priority="194" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+    <cfRule type="containsText" dxfId="138" priority="193" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 G5 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5773,33 +6022,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="121" priority="177" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="120" priority="176" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="119" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="118" priority="172" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
-    <cfRule type="containsText" dxfId="117" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="containsText" dxfId="137" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="136" priority="190" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="135" priority="188" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+    <cfRule type="containsText" dxfId="134" priority="189" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H6 H10 H12 H14 H20">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5810,27 +6054,126 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="116" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="115" priority="168" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="114" priority="166" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
-    <cfRule type="containsText" dxfId="113" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="133" priority="186" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="132" priority="185" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="130" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+    <cfRule type="containsText" dxfId="129" priority="182" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 G6 G10 G12 G14 G20">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="128" priority="180" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="127" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="126" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+    <cfRule type="containsText" dxfId="125" priority="178" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="containsText" dxfId="124" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="122" priority="172" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="121" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="120" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="119" priority="170" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="118" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="117" priority="168" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="116" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="115" priority="166" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5842,64 +6185,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="112" priority="164" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="111" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="110" priority="162" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="109" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
-    <cfRule type="containsText" dxfId="108" priority="160" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="107" priority="158" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="106" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="containsText" dxfId="114" priority="164" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="containsText" dxfId="113" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="111" priority="162" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="110" priority="160" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="109" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="108" priority="158" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="107" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="106" priority="156" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="containsText" dxfId="105" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
-    <cfRule type="containsText" dxfId="104" priority="156" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
+  <conditionalFormatting sqref="G18:H18">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5911,57 +6247,52 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="103" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="102" priority="152" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="101" priority="150" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="100" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="99" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="98" priority="148" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="97" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="96" priority="146" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="95" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="94" priority="144" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="containsText" dxfId="104" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="containsText" dxfId="103" priority="152" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="102" priority="150" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="101" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="100" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="99" priority="148" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="98" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="96" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5973,57 +6304,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="93" priority="142" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="containsText" dxfId="92" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="91" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="89" priority="138" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="88" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="87" priority="136" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="86" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="85" priority="134" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="84" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="95" priority="134" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="94" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6035,52 +6326,64 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="83" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="82" priority="130" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="81" priority="128" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="80" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="79" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="78" priority="126" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="77" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="76" priority="124" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="75" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="93" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="92" priority="130" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="91" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="90" priority="128" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="89" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="88" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="87" priority="124" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="86" priority="122" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="85" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6092,17 +6395,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="74" priority="112" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="73" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="84" priority="120" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="83" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="82" priority="118" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="81" priority="114" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="80" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="79" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="78" priority="112" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6114,32 +6454,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="72" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="71" priority="108" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="70" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="69" priority="106" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="68" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="76" priority="108" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6151,27 +6476,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="67" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="66" priority="102" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="65" priority="100" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="64" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="75" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="74" priority="102" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="73" priority="100" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="72" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6183,22 +6508,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="62" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="61" priority="96" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="71" priority="98" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6210,27 +6530,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="60" priority="92" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="59" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="58" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="57" priority="90" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="69" priority="92" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="68" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="67" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6242,17 +6562,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="56" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="55" priority="86" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="63" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6264,27 +6599,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="54" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="59" priority="80" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6296,17 +6631,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="50" priority="76" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="55" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6318,27 +6668,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="45" priority="68" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="51" priority="70" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="50" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="49" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="48" priority="68" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6350,32 +6700,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="44" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="41" priority="62" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="46" priority="64" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="44" priority="62" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6387,27 +6737,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="39" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6419,32 +6769,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="35" priority="54" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6456,96 +6806,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="29" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="23" priority="40" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="20" priority="36" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="19" priority="34" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="containsText" dxfId="30" priority="46" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6557,32 +6838,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="15" priority="30" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="13" priority="28" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6594,27 +6875,96 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6626,32 +6976,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6663,22 +7013,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>

--- a/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
+++ b/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171DA65-E061-4CE8-9D9C-E864ABCB2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351DB487-39BD-4C27-B874-07C854D971FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25¢" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Links" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1$'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'25¢'!$B$2:$F$2</definedName>
     <definedName name="tags" localSheetId="1">'1$'!#REF!</definedName>
     <definedName name="tags" localSheetId="0">'25¢'!#REF!</definedName>
   </definedNames>
@@ -127,22 +129,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A8918507-F257-40FF-A6E5-0F30BCE6A32B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Obverse year/Real year of stamping</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{048FA114-EBD3-46E2-BA19-25471C7A6126}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{048FA114-EBD3-46E2-BA19-25471C7A6126}">
       <text>
         <r>
           <rPr>
@@ -157,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{89E7C4AB-2F5A-47C5-BFC9-E54BF7161B19}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{89E7C4AB-2F5A-47C5-BFC9-E54BF7161B19}">
       <text>
         <r>
           <rPr>
@@ -172,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{DCB95840-C583-4D63-84BD-ECDC6E3331D8}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{DCB95840-C583-4D63-84BD-ECDC6E3331D8}">
       <text>
         <r>
           <rPr>
@@ -187,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{D54FE64E-DD8B-42A9-BCC9-5FC611E979E3}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{D54FE64E-DD8B-42A9-BCC9-5FC611E979E3}">
       <text>
         <r>
           <rPr>
@@ -207,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="103">
   <si>
     <t>-</t>
   </si>
@@ -224,12 +211,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -513,17 +494,42 @@
   </si>
   <si>
     <t>150th Anniversary - Supreme Court of Canada</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Portrait</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -780,23 +786,23 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,84 +814,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -900,150 +927,6 @@
   </cellStyles>
   <dxfs count="243">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1051,6 +934,150 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2857,9 +2884,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3164,553 +3191,552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B4963-DC2E-4382-9FF8-510C6ADD856E}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="A44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f t="shared" ref="I3:I42" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22" t="str">
-        <f t="shared" ref="I3:I42" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="str">
+      <c r="F5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>2005</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="str">
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>2005</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="str">
+      <c r="F7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="str">
+      <c r="F8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="str">
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>2007</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="str">
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>2007</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="str">
+      <c r="F12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>2007</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="str">
+      <c r="F13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22" t="str">
+      <c r="F18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="4">
@@ -3719,677 +3745,677 @@
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>2009</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" t="str">
+      <c r="F21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>2009</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22" t="str">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>2010</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>2011</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22" t="str">
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B26" s="17" t="s">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="str">
+      <c r="F28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="11" t="s">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="str">
+      <c r="F29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B28" s="17" t="s">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22" t="str">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B29" s="13" t="s">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22" t="str">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="18" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22" t="str">
+      <c r="E33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22" t="str">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B32" s="17" t="s">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22" t="str">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22" t="str">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22" t="str">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="22" t="str">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="22" t="str">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="22" t="str">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="22" t="str">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="22" t="str">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{AE0B4963-DC2E-4382-9FF8-510C6ADD856E}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4780,1006 +4806,1042 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B0967-53FD-4FC2-980A-CA1566FA6C4B}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2003</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="G4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="str">
+        <f t="shared" ref="J4:J31" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="str">
-        <f t="shared" ref="I4:I31" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="G5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="I32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21" t="str">
+        <f t="shared" ref="J32" si="1">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-"),AND(I32&gt;1,I32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="E33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="24" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21" t="str">
+        <f t="shared" ref="J33:J34" si="2">IF(OR(AND(H33&gt;1,H33&lt;&gt;"-"),AND(I33&gt;1,I33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="C34" s="13"/>
+      <c r="D34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f t="shared" ref="I32" si="1">IF(OR(AND(G32&gt;1,G32&lt;&gt;"-"),AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="I34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F35" s="19"/>
+      <c r="G35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" ref="I33:I34" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>2025</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>2025</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="22" t="str">
-        <f t="shared" ref="I35" si="3">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21" t="str">
+        <f t="shared" ref="J35" si="3">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-"),AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{572B0967-53FD-4FC2-980A-CA1566FA6C4B}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="G4:H4">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="H4:I4">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5791,82 +5853,82 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
+  <conditionalFormatting sqref="H4:I4">
     <cfRule type="containsText" dxfId="176" priority="291" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
+  <conditionalFormatting sqref="H4:I4">
     <cfRule type="containsText" dxfId="175" priority="290" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="containsText" dxfId="174" priority="288" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="containsText" dxfId="173" priority="289" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="containsText" dxfId="172" priority="287" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="containsText" dxfId="171" priority="286" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="containsText" dxfId="170" priority="285" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="containsText" dxfId="169" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="containsText" dxfId="168" priority="116" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="containsText" dxfId="167" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="containsText" dxfId="166" priority="106" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="containsText" dxfId="165" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="164" priority="96" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="163" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="162" priority="94" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
+  <conditionalFormatting sqref="H3:I3">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5878,102 +5940,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
+  <conditionalFormatting sqref="H3:I3">
     <cfRule type="containsText" dxfId="161" priority="221" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
+  <conditionalFormatting sqref="H3:I3">
     <cfRule type="containsText" dxfId="160" priority="220" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="containsText" dxfId="159" priority="218" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="containsText" dxfId="158" priority="219" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="157" priority="217" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="156" priority="216" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="155" priority="215" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="157" priority="217" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="214" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="156" priority="216" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="213" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="155" priority="215" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="154" priority="214" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="153" priority="213" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
     <cfRule type="containsText" dxfId="152" priority="212" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="151" priority="144" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="H22:I22">
     <cfRule type="containsText" dxfId="150" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="H22:I22">
     <cfRule type="containsText" dxfId="149" priority="142" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="148" priority="140" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="147" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="146" priority="138" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="145" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="144" priority="136" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="146" priority="138" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="145" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="144" priority="136" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
     <cfRule type="containsText" dxfId="143" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H5 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I9 I5 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5985,32 +6047,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="containsText" dxfId="142" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="containsText" dxfId="141" priority="198" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="containsText" dxfId="140" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="containsText" dxfId="139" priority="194" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="containsText" dxfId="138" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G5 G11 G13 G15 G17 G19 G21 G23">
+  <conditionalFormatting sqref="H9 H5 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6022,27 +6084,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="containsText" dxfId="137" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="containsText" dxfId="136" priority="190" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="containsText" dxfId="135" priority="188" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G11 G13 G15 G17 G19 G21 G23">
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="containsText" dxfId="134" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I8 I6 I10 I12 I14 I20">
     <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6054,32 +6116,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="containsText" dxfId="133" priority="186" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="containsText" dxfId="132" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="containsText" dxfId="130" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="containsText" dxfId="129" priority="182" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G6 G10 G12 G14 G20">
+  <conditionalFormatting sqref="H8 H6 H10 H12 H14 H20">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6091,27 +6153,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
     <cfRule type="containsText" dxfId="128" priority="180" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
     <cfRule type="containsText" dxfId="127" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
     <cfRule type="containsText" dxfId="126" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G10 G12 G14 G20">
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
     <cfRule type="containsText" dxfId="125" priority="178" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
+  <conditionalFormatting sqref="H7:I7">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6123,57 +6185,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
+  <conditionalFormatting sqref="H7:I7">
     <cfRule type="containsText" dxfId="124" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
+  <conditionalFormatting sqref="H7:I7">
     <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="122" priority="172" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="121" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="120" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="119" priority="170" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="118" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="120" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="168" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="119" priority="170" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="118" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="117" priority="168" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="116" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
     <cfRule type="containsText" dxfId="115" priority="166" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+  <conditionalFormatting sqref="H16:I16">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6185,57 +6247,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+  <conditionalFormatting sqref="H16:I16">
     <cfRule type="containsText" dxfId="114" priority="164" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+  <conditionalFormatting sqref="H16:I16">
     <cfRule type="containsText" dxfId="113" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="111" priority="162" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="110" priority="160" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="109" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="108" priority="158" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="110" priority="160" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="109" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="156" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="108" priority="158" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="107" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="106" priority="156" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
     <cfRule type="containsText" dxfId="105" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="H18:I18">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6247,52 +6309,52 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="H18:I18">
     <cfRule type="containsText" dxfId="104" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="H18:I18">
     <cfRule type="containsText" dxfId="103" priority="152" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="102" priority="150" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="101" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="100" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="99" priority="148" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="98" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="100" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="99" priority="148" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="98" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
     <cfRule type="containsText" dxfId="96" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="H22:I22">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6304,17 +6366,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="95" priority="134" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="94" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6326,32 +6388,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="93" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="92" priority="130" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="91" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="90" priority="128" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="89" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="93" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="92" priority="130" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="91" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="90" priority="128" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="89" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6363,27 +6425,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="88" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="87" priority="124" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="86" priority="122" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="85" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6395,22 +6457,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="84" priority="120" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="83" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="82" priority="118" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="84" priority="120" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="83" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="82" priority="118" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6422,27 +6484,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="81" priority="114" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="80" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="79" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="78" priority="112" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6454,17 +6516,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="76" priority="108" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="76" priority="108" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6476,27 +6538,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="75" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="74" priority="102" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="73" priority="100" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="72" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6508,17 +6570,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="71" priority="98" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="71" priority="98" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6530,27 +6592,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="69" priority="92" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="68" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="67" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6562,32 +6624,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="63" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="63" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="62" priority="84" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6599,27 +6661,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="59" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6631,32 +6693,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="55" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="55" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6668,27 +6730,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="51" priority="70" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="50" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="49" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="48" priority="68" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6700,32 +6762,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="46" priority="64" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="44" priority="62" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="46" priority="64" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="44" priority="62" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6737,27 +6799,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
+  <conditionalFormatting sqref="I31:I32">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6769,32 +6831,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6806,27 +6868,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
+  <conditionalFormatting sqref="H31:H32">
     <cfRule type="containsText" dxfId="30" priority="46" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6838,32 +6900,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6875,27 +6937,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6907,32 +6969,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6944,27 +7006,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6976,32 +7038,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7013,23 +7075,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7062,10 +7124,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -7073,10 +7135,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7084,9 +7146,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
+++ b/Collections/Canada/#Canada#Commemorative#[2003-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351DB487-39BD-4C27-B874-07C854D971FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A065F-3966-42DC-9CCB-959E3E21390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3195,7 +3195,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="A44:D45"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4812,7 +4812,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:D38"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
@@ -6035,7 +6035,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I5 I11 I13 I15 I17 I19 I21 I23">
+  <conditionalFormatting sqref="I5 I9 I11 I13 I15 I17 I19 I21 I23">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6072,7 +6072,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H5 H11 H13 H15 H17 H19 H21 H23">
+  <conditionalFormatting sqref="H5 H9 H11 H13 H15 H17 H19 H21 H23">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6104,7 +6104,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I6 I10 I12 I14 I20">
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I20">
     <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6141,7 +6141,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H10 H12 H14 H20">
+  <conditionalFormatting sqref="H6 H8 H10 H12 H14 H20">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="formula" val="0"/>
